--- a/biology/Botanique/Turbinaria_ornata/Turbinaria_ornata.xlsx
+++ b/biology/Botanique/Turbinaria_ornata/Turbinaria_ornata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Turbinaria ornata est une espèce d'algues brunes de la famille des Sargassaceae. On la rencontre dans l'océan Indien. Dans le Pacifique en Polynésie française. Son échouage sur les plages et sa décomposition dans l'eau de mer et au bord de l'eau provoquent des émanations de SH2, Sulfure d'hydrogène, sentant l'œuf pourri et potentiellement mortelles selon leur concentration.[réf. nécessaire]  
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des formes et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (18 nov. 2012)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (18 nov. 2012) :
 forme Turbinaria ornata f. cordata Pham Hoàng Hó
 forme Turbinaria ornata f. ecoronata W.R.Taylor, 1964
 forme Turbinaria ornata f. evesiculosa (E.S.Barton) W.R.Taylor, 1964
